--- a/10_Momo/Matrix_for_R.xlsx
+++ b/10_Momo/Matrix_for_R.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="555">
   <si>
     <t>City</t>
   </si>
@@ -1391,21 +1391,12 @@
     <t>'Brunswick'</t>
   </si>
   <si>
-    <t>'Bryson City'</t>
-  </si>
-  <si>
-    <t>'Bumcombe'</t>
-  </si>
-  <si>
     <t>'Buncombe'</t>
   </si>
   <si>
     <t>'Burke'</t>
   </si>
   <si>
-    <t>'Burlington'</t>
-  </si>
-  <si>
     <t>'Cabarrus'</t>
   </si>
   <si>
@@ -1418,334 +1409,292 @@
     <t>'Caswell'</t>
   </si>
   <si>
+    <t>'Catawba'</t>
+  </si>
+  <si>
+    <t>'Chatham'</t>
+  </si>
+  <si>
+    <t>'Cherokee'</t>
+  </si>
+  <si>
+    <t>'Chester'</t>
+  </si>
+  <si>
+    <t>'Clarendon'</t>
+  </si>
+  <si>
+    <t>'Cleveland'</t>
+  </si>
+  <si>
+    <t>'Columbus'</t>
+  </si>
+  <si>
+    <t>'Craven'</t>
+  </si>
+  <si>
+    <t>'Cumberland'</t>
+  </si>
+  <si>
+    <t>'Darlington'</t>
+  </si>
+  <si>
+    <t>'Davidson'</t>
+  </si>
+  <si>
+    <t>'Davie'</t>
+  </si>
+  <si>
+    <t>'Dillon'</t>
+  </si>
+  <si>
+    <t>'Duplin'</t>
+  </si>
+  <si>
+    <t>'Durham'</t>
+  </si>
+  <si>
+    <t>'Fairfield'</t>
+  </si>
+  <si>
+    <t>'Florence'</t>
+  </si>
+  <si>
+    <t>'Forsyth'</t>
+  </si>
+  <si>
+    <t>'Franklin'</t>
+  </si>
+  <si>
+    <t>'Gaston'</t>
+  </si>
+  <si>
+    <t>'Gastonia'</t>
+  </si>
+  <si>
+    <t>'Graham'</t>
+  </si>
+  <si>
+    <t>'Granville'</t>
+  </si>
+  <si>
+    <t>'Greene'</t>
+  </si>
+  <si>
+    <t>'Greensboro'</t>
+  </si>
+  <si>
+    <t>'Greenville'</t>
+  </si>
+  <si>
+    <t>'Greenwood'</t>
+  </si>
+  <si>
+    <t>'Guilford'</t>
+  </si>
+  <si>
+    <t>'Halifax'</t>
+  </si>
+  <si>
+    <t>'Harnett'</t>
+  </si>
+  <si>
+    <t>'Haywood'</t>
+  </si>
+  <si>
+    <t>'Henderson'</t>
+  </si>
+  <si>
+    <t>'Hoke'</t>
+  </si>
+  <si>
+    <t>'Iredell'</t>
+  </si>
+  <si>
+    <t>'Jackson'</t>
+  </si>
+  <si>
+    <t>'Johnston'</t>
+  </si>
+  <si>
+    <t>'Jones'</t>
+  </si>
+  <si>
+    <t>'Kershaw'</t>
+  </si>
+  <si>
+    <t>'Lancaster'</t>
+  </si>
+  <si>
+    <t>'Laurens'</t>
+  </si>
+  <si>
+    <t>'Lee'</t>
+  </si>
+  <si>
+    <t>'Lenoir'</t>
+  </si>
+  <si>
+    <t>'Lincoln'</t>
+  </si>
+  <si>
+    <t>'Macon'</t>
+  </si>
+  <si>
+    <t>'Madison'</t>
+  </si>
+  <si>
+    <t>'Marion'</t>
+  </si>
+  <si>
+    <t>'Marlboro'</t>
+  </si>
+  <si>
+    <t>'McDowell'</t>
+  </si>
+  <si>
+    <t>'Mecklenburg'</t>
+  </si>
+  <si>
+    <t>'Mitchell'</t>
+  </si>
+  <si>
+    <t>'Montgomery'</t>
+  </si>
+  <si>
+    <t>'Moore'</t>
+  </si>
+  <si>
+    <t>'Nash'</t>
+  </si>
+  <si>
+    <t>'New Hanover'</t>
+  </si>
+  <si>
+    <t>'Oconee'</t>
+  </si>
+  <si>
+    <t>'Onslow'</t>
+  </si>
+  <si>
+    <t>'Orange'</t>
+  </si>
+  <si>
+    <t>'Pender'</t>
+  </si>
+  <si>
+    <t>'Person'</t>
+  </si>
+  <si>
+    <t>'Pickens'</t>
+  </si>
+  <si>
+    <t>'Pitt'</t>
+  </si>
+  <si>
+    <t>'Polk'</t>
+  </si>
+  <si>
+    <t>'Randolph'</t>
+  </si>
+  <si>
+    <t>'Richmond'</t>
+  </si>
+  <si>
+    <t>'Robeson'</t>
+  </si>
+  <si>
+    <t>'Rockingham'</t>
+  </si>
+  <si>
+    <t>'Rowan'</t>
+  </si>
+  <si>
+    <t>'Rutherford'</t>
+  </si>
+  <si>
+    <t>'Sampson'</t>
+  </si>
+  <si>
+    <t>'Scotland'</t>
+  </si>
+  <si>
+    <t>'Spartanburg'</t>
+  </si>
+  <si>
+    <t>'Stanly'</t>
+  </si>
+  <si>
+    <t>'Stokes'</t>
+  </si>
+  <si>
+    <t>'Sumter'</t>
+  </si>
+  <si>
+    <t>'Surry'</t>
+  </si>
+  <si>
+    <t>'Swain'</t>
+  </si>
+  <si>
+    <t>'Union'</t>
+  </si>
+  <si>
+    <t>'Vance'</t>
+  </si>
+  <si>
+    <t>'Wake'</t>
+  </si>
+  <si>
+    <t>'Warren'</t>
+  </si>
+  <si>
+    <t>'Wayne'</t>
+  </si>
+  <si>
+    <t>'Wilkes'</t>
+  </si>
+  <si>
+    <t>'Williamsburg'</t>
+  </si>
+  <si>
+    <t>'Wilson'</t>
+  </si>
+  <si>
+    <t>'Yadkin'</t>
+  </si>
+  <si>
+    <t>'York'</t>
+  </si>
+  <si>
+    <t>'Bladen '</t>
+  </si>
+  <si>
+    <t>'Buncombe '</t>
+  </si>
+  <si>
     <t>'Catabwa'</t>
   </si>
   <si>
-    <t>'Catawba'</t>
-  </si>
-  <si>
-    <t>'Chapel Hill'</t>
-  </si>
-  <si>
-    <t>'Charlotte'</t>
-  </si>
-  <si>
-    <t>'Chatham'</t>
-  </si>
-  <si>
-    <t>'Cherokee'</t>
-  </si>
-  <si>
-    <t>'Chester'</t>
-  </si>
-  <si>
-    <t>'Clarendon'</t>
-  </si>
-  <si>
-    <t>'Cleveland'</t>
-  </si>
-  <si>
-    <t>'Columbus'</t>
-  </si>
-  <si>
-    <t>'Craven'</t>
-  </si>
-  <si>
-    <t>'Cumberland'</t>
-  </si>
-  <si>
-    <t>'Cumberland County'</t>
-  </si>
-  <si>
-    <t>'Darlington'</t>
-  </si>
-  <si>
-    <t>'Davidson'</t>
-  </si>
-  <si>
-    <t>'Davie'</t>
-  </si>
-  <si>
-    <t>'Dillon'</t>
-  </si>
-  <si>
-    <t>'Duplin'</t>
-  </si>
-  <si>
-    <t>'Durham'</t>
-  </si>
-  <si>
-    <t>'Durham- NE'</t>
-  </si>
-  <si>
-    <t>'Fairfield'</t>
-  </si>
-  <si>
-    <t>'Florence'</t>
-  </si>
-  <si>
-    <t>'Forsyth'</t>
-  </si>
-  <si>
-    <t>'Forsythe'</t>
-  </si>
-  <si>
-    <t>'Franklin'</t>
-  </si>
-  <si>
-    <t>'Gaston'</t>
-  </si>
-  <si>
-    <t>'Gastonia'</t>
-  </si>
-  <si>
-    <t>'Graham'</t>
-  </si>
-  <si>
-    <t>'Granville'</t>
-  </si>
-  <si>
-    <t>'Greene'</t>
-  </si>
-  <si>
-    <t>'Greensboro'</t>
-  </si>
-  <si>
-    <t>'Greenville'</t>
-  </si>
-  <si>
-    <t>'Greenwood'</t>
-  </si>
-  <si>
-    <t>'Greer'</t>
-  </si>
-  <si>
-    <t>'Guildford'</t>
-  </si>
-  <si>
-    <t>'Guilford'</t>
-  </si>
-  <si>
-    <t>'Halifax'</t>
-  </si>
-  <si>
-    <t>'Hanover'</t>
-  </si>
-  <si>
-    <t>'Harnett'</t>
-  </si>
-  <si>
-    <t>'Harnettt'</t>
-  </si>
-  <si>
-    <t>'Hartsville'</t>
-  </si>
-  <si>
-    <t>'Haywood'</t>
-  </si>
-  <si>
-    <t>'Henderson'</t>
-  </si>
-  <si>
-    <t>'Hoke'</t>
-  </si>
-  <si>
-    <t>'Iradell'</t>
-  </si>
-  <si>
-    <t>'Iredell'</t>
-  </si>
-  <si>
-    <t>'Iredelle'</t>
-  </si>
-  <si>
-    <t>'Jackson'</t>
-  </si>
-  <si>
-    <t>'Jackson/Swain'</t>
-  </si>
-  <si>
-    <t>'Johnston'</t>
-  </si>
-  <si>
-    <t>'Jones'</t>
-  </si>
-  <si>
-    <t>'Kershaw'</t>
-  </si>
-  <si>
-    <t>'Kinston'</t>
-  </si>
-  <si>
-    <t>'Lancaster'</t>
-  </si>
-  <si>
-    <t>'Laurens'</t>
-  </si>
-  <si>
-    <t>'Lee'</t>
-  </si>
-  <si>
-    <t>'Lenoir'</t>
-  </si>
-  <si>
-    <t>'Lincoln'</t>
-  </si>
-  <si>
-    <t>'Lincolnton'</t>
-  </si>
-  <si>
-    <t>'Macon'</t>
-  </si>
-  <si>
-    <t>'Madison'</t>
-  </si>
-  <si>
-    <t>'Marion'</t>
-  </si>
-  <si>
-    <t>'Marlboro'</t>
-  </si>
-  <si>
-    <t>'McDowell'</t>
-  </si>
-  <si>
-    <t>'Mcklenburg'</t>
-  </si>
-  <si>
-    <t>'Mecklenberg'</t>
-  </si>
-  <si>
-    <t>'Mecklenburg'</t>
-  </si>
-  <si>
-    <t>'Mitchell'</t>
-  </si>
-  <si>
-    <t>'Montgomery'</t>
-  </si>
-  <si>
-    <t>'Moore'</t>
-  </si>
-  <si>
-    <t>'Nash'</t>
-  </si>
-  <si>
-    <t>'New Hanover'</t>
-  </si>
-  <si>
-    <t>'Oconee'</t>
-  </si>
-  <si>
-    <t>'Onslow'</t>
-  </si>
-  <si>
-    <t>'Orange'</t>
-  </si>
-  <si>
-    <t>'Pender'</t>
-  </si>
-  <si>
-    <t>'Person'</t>
-  </si>
-  <si>
-    <t>'Pickens'</t>
-  </si>
-  <si>
-    <t>'Pitt'</t>
-  </si>
-  <si>
-    <t>'Polk'</t>
-  </si>
-  <si>
-    <t>'Randolph'</t>
-  </si>
-  <si>
-    <t>'Richmond'</t>
-  </si>
-  <si>
-    <t>'Robeson'</t>
-  </si>
-  <si>
-    <t>'Rockingham'</t>
-  </si>
-  <si>
-    <t>'Rowan'</t>
-  </si>
-  <si>
-    <t>'Rutherford'</t>
-  </si>
-  <si>
-    <t>'Rutherfordton'</t>
-  </si>
-  <si>
-    <t>'Sampson'</t>
-  </si>
-  <si>
-    <t>'Scotland'</t>
-  </si>
-  <si>
-    <t>'Shelby'</t>
-  </si>
-  <si>
-    <t>'Spartanburg'</t>
-  </si>
-  <si>
-    <t>'Stanly'</t>
-  </si>
-  <si>
-    <t>'Stokes'</t>
-  </si>
-  <si>
-    <t>'Sumter'</t>
-  </si>
-  <si>
-    <t>'Surry'</t>
-  </si>
-  <si>
-    <t>'Swain'</t>
-  </si>
-  <si>
-    <t>'Translyvania'</t>
+    <t>'Chesterfield'</t>
+  </si>
+  <si>
+    <t>'Florence '</t>
+  </si>
+  <si>
+    <t>'Pender '</t>
+  </si>
+  <si>
+    <t>'Randolph '</t>
   </si>
   <si>
     <t>'Transylvania'</t>
   </si>
   <si>
-    <t>'Union'</t>
-  </si>
-  <si>
-    <t>'Vance'</t>
-  </si>
-  <si>
-    <t>'Wake'</t>
-  </si>
-  <si>
-    <t>'Warren'</t>
-  </si>
-  <si>
-    <t>'Wayne'</t>
-  </si>
-  <si>
-    <t>'Wilkes'</t>
-  </si>
-  <si>
-    <t>'Williamsburg'</t>
-  </si>
-  <si>
-    <t>'Wilson'</t>
-  </si>
-  <si>
-    <t>'Winston Salem'</t>
-  </si>
-  <si>
-    <t>'Yadkin'</t>
-  </si>
-  <si>
-    <t>'York'</t>
-  </si>
-  <si>
-    <t>Kw in county</t>
+    <t>Total KW</t>
+  </si>
+  <si>
+    <t>County</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1806,6 +1755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2089,7 +2039,7 @@
   <dimension ref="A1:O386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2135,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>445</v>
+        <v>554</v>
       </c>
       <c r="N1" t="s">
         <v>445</v>
@@ -2167,7 +2117,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="K2">
-        <v>36461.769999999997</v>
+        <v>36474.285000000003</v>
       </c>
       <c r="L2" t="s">
         <v>446</v>
@@ -2328,7 +2278,7 @@
         <v>2.6640000000000001</v>
       </c>
       <c r="K7">
-        <v>26525</v>
+        <v>31535</v>
       </c>
       <c r="L7" t="s">
         <v>451</v>
@@ -2361,10 +2311,10 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="K8">
-        <v>71.760000000000005</v>
+        <v>5010</v>
       </c>
       <c r="L8" t="s">
-        <v>452</v>
+        <v>545</v>
       </c>
       <c r="N8" t="s">
         <v>419</v>
@@ -2391,10 +2341,10 @@
         <v>2.58</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="L9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N9" t="s">
         <v>439</v>
@@ -2424,10 +2374,10 @@
         <v>0.8</v>
       </c>
       <c r="K10">
-        <v>1.44</v>
+        <v>12886.849</v>
       </c>
       <c r="L10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N10" t="s">
         <v>405</v>
@@ -2454,10 +2404,10 @@
         <v>4950</v>
       </c>
       <c r="K11">
-        <v>12885.409</v>
+        <v>7.22</v>
       </c>
       <c r="L11" t="s">
-        <v>455</v>
+        <v>546</v>
       </c>
       <c r="N11" t="s">
         <v>401</v>
@@ -2487,7 +2437,7 @@
         <v>11683.843000000001</v>
       </c>
       <c r="L12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N12" t="s">
         <v>408</v>
@@ -2514,10 +2464,10 @@
         <v>193</v>
       </c>
       <c r="K13">
-        <v>4.5149999999999997</v>
+        <v>14720.105</v>
       </c>
       <c r="L13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N13" t="s">
         <v>400</v>
@@ -2544,10 +2494,10 @@
         <v>1.44</v>
       </c>
       <c r="K14">
-        <v>14720.105</v>
+        <v>5917.85</v>
       </c>
       <c r="L14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N14" t="s">
         <v>429</v>
@@ -2574,10 +2524,10 @@
         <v>80.349999999999994</v>
       </c>
       <c r="K15">
-        <v>5917.85</v>
+        <v>41.103999999999999</v>
       </c>
       <c r="L15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N15" t="s">
         <v>432</v>
@@ -2604,10 +2554,10 @@
         <v>3.08</v>
       </c>
       <c r="K16">
-        <v>41.103999999999999</v>
+        <v>24540.29</v>
       </c>
       <c r="L16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N16" t="s">
         <v>416</v>
@@ -2634,10 +2584,10 @@
         <v>5011.7340000000004</v>
       </c>
       <c r="K17">
-        <v>24540.29</v>
+        <v>9.1170000000000009</v>
       </c>
       <c r="L17" t="s">
-        <v>461</v>
+        <v>547</v>
       </c>
       <c r="N17" t="s">
         <v>442</v>
@@ -2664,10 +2614,10 @@
         <v>5411.5</v>
       </c>
       <c r="K18">
-        <v>9.1170000000000009</v>
+        <v>59520.15</v>
       </c>
       <c r="L18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N18" t="s">
         <v>425</v>
@@ -2694,10 +2644,10 @@
         <v>20503</v>
       </c>
       <c r="K19">
-        <v>59515.15</v>
+        <v>58738.834000000003</v>
       </c>
       <c r="L19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N19" t="s">
         <v>399</v>
@@ -2724,10 +2674,10 @@
         <v>4000</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>339.17</v>
       </c>
       <c r="L20" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N20" t="s">
         <v>403</v>
@@ -2754,10 +2704,10 @@
         <v>190</v>
       </c>
       <c r="K21">
-        <v>5.2</v>
+        <v>23.47</v>
       </c>
       <c r="L21" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N21" t="s">
         <v>421</v>
@@ -2784,10 +2734,10 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>58738.834000000003</v>
+        <v>9600</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>548</v>
       </c>
       <c r="N22" t="s">
         <v>422</v>
@@ -2814,10 +2764,10 @@
         <v>27.8</v>
       </c>
       <c r="K23">
-        <v>339.17</v>
+        <v>46400</v>
       </c>
       <c r="L23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N23" t="s">
         <v>420</v>
@@ -2844,10 +2794,10 @@
         <v>23451.592000000001</v>
       </c>
       <c r="K24">
-        <v>23.47</v>
+        <v>104013.22</v>
       </c>
       <c r="L24" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="N24" t="s">
         <v>423</v>
@@ -2874,10 +2824,10 @@
         <v>3.44</v>
       </c>
       <c r="K25">
-        <v>46400</v>
+        <v>109762.88</v>
       </c>
       <c r="L25" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="N25" t="s">
         <v>433</v>
@@ -2904,10 +2854,10 @@
         <v>8</v>
       </c>
       <c r="K26">
-        <v>99138.22</v>
+        <v>66765.78</v>
       </c>
       <c r="L26" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N26" t="s">
         <v>441</v>
@@ -2934,10 +2884,10 @@
         <v>60</v>
       </c>
       <c r="K27">
-        <v>104263.88</v>
+        <v>42992.31</v>
       </c>
       <c r="L27" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N27" t="s">
         <v>426</v>
@@ -2964,10 +2914,10 @@
         <v>1.29</v>
       </c>
       <c r="K28">
-        <v>66765.78</v>
+        <v>16775.919999999998</v>
       </c>
       <c r="L28" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="N28" t="s">
         <v>428</v>
@@ -2993,10 +2943,10 @@
         <v>5.8</v>
       </c>
       <c r="K29">
-        <v>42986.6</v>
+        <v>6619.6059999999998</v>
       </c>
       <c r="L29" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N29" t="s">
         <v>430</v>
@@ -3023,10 +2973,10 @@
         <v>19926</v>
       </c>
       <c r="K30">
-        <v>5.71</v>
+        <v>19876.308000000001</v>
       </c>
       <c r="L30" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N30" t="s">
         <v>431</v>
@@ -3053,10 +3003,10 @@
         <v>15918.03</v>
       </c>
       <c r="K31">
-        <v>1765</v>
+        <v>139925.57999999999</v>
       </c>
       <c r="L31" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N31" t="s">
         <v>407</v>
@@ -3083,10 +3033,10 @@
         <v>14303</v>
       </c>
       <c r="K32">
-        <v>6619.6059999999998</v>
+        <v>129681.59</v>
       </c>
       <c r="L32" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N32" t="s">
         <v>434</v>
@@ -3113,10 +3063,10 @@
         <v>751.35</v>
       </c>
       <c r="K33">
-        <v>19876.308000000001</v>
+        <v>19672.045999999998</v>
       </c>
       <c r="L33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="N33" t="s">
         <v>435</v>
@@ -3143,10 +3093,10 @@
         <v>84</v>
       </c>
       <c r="K34">
-        <v>130325.58</v>
+        <v>2.4</v>
       </c>
       <c r="L34" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="N34" t="s">
         <v>404</v>
@@ -3173,10 +3123,10 @@
         <v>27982.741999999998</v>
       </c>
       <c r="K35">
-        <v>117781.59</v>
+        <v>30402</v>
       </c>
       <c r="L35" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="N35" t="s">
         <v>406</v>
@@ -3203,10 +3153,10 @@
         <v>6.8179999999999996</v>
       </c>
       <c r="K36">
-        <v>14625.431</v>
+        <v>10000</v>
       </c>
       <c r="L36" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="N36" t="s">
         <v>411</v>
@@ -3233,10 +3183,10 @@
         <v>5034.43</v>
       </c>
       <c r="K37">
-        <v>6.6150000000000002</v>
+        <v>16643.847000000002</v>
       </c>
       <c r="L37" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N37" t="s">
         <v>440</v>
@@ -3263,10 +3213,10 @@
         <v>2022.65</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>63698.682000000001</v>
       </c>
       <c r="L38" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="N38" t="s">
         <v>417</v>
@@ -3293,10 +3243,10 @@
         <v>7907.7179999999998</v>
       </c>
       <c r="K39">
-        <v>20400</v>
+        <v>20464.824000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N39" t="s">
         <v>409</v>
@@ -3323,10 +3273,10 @@
         <v>15</v>
       </c>
       <c r="K40">
-        <v>16636.636999999999</v>
+        <v>1566</v>
       </c>
       <c r="L40" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="N40" t="s">
         <v>418</v>
@@ -3353,10 +3303,10 @@
         <v>4987.12</v>
       </c>
       <c r="K41">
-        <v>6.21</v>
+        <v>11.92</v>
       </c>
       <c r="L41" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="N41" t="s">
         <v>413</v>
@@ -3386,10 +3336,10 @@
         <v>2.278</v>
       </c>
       <c r="K42">
-        <v>63698.682000000001</v>
+        <v>71520.5</v>
       </c>
       <c r="L42" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="N42" t="s">
         <v>397</v>
@@ -3416,10 +3366,10 @@
         <v>24729.611000000001</v>
       </c>
       <c r="K43">
-        <v>20458.423999999999</v>
+        <v>25981</v>
       </c>
       <c r="L43" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N43" t="s">
         <v>427</v>
@@ -3446,10 +3396,10 @@
         <v>5</v>
       </c>
       <c r="K44">
-        <v>1566</v>
+        <v>9.4</v>
       </c>
       <c r="L44" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N44" t="s">
         <v>414</v>
@@ -3476,10 +3426,10 @@
         <v>32094.92</v>
       </c>
       <c r="K45">
-        <v>11.92</v>
+        <v>614.56200000000001</v>
       </c>
       <c r="L45" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="N45" t="s">
         <v>402</v>
@@ -3506,10 +3456,10 @@
         <v>24.56</v>
       </c>
       <c r="K46">
-        <v>69320.5</v>
+        <v>48.002000000000002</v>
       </c>
       <c r="L46" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="N46" t="s">
         <v>424</v>
@@ -3536,10 +3486,10 @@
         <v>4998</v>
       </c>
       <c r="K47">
-        <v>25971</v>
+        <v>61597.572999999997</v>
       </c>
       <c r="L47" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="N47" t="s">
         <v>438</v>
@@ -3566,10 +3516,10 @@
         <v>5003.2700000000004</v>
       </c>
       <c r="K48">
-        <v>9.4</v>
+        <v>5002.58</v>
       </c>
       <c r="L48" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="N48" t="s">
         <v>437</v>
@@ -3596,10 +3546,10 @@
         <v>8959.8449999999993</v>
       </c>
       <c r="K49">
-        <v>582.30600000000004</v>
+        <v>76681.52</v>
       </c>
       <c r="L49" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N49" t="s">
         <v>410</v>
@@ -3626,10 +3576,10 @@
         <v>4950.8599999999997</v>
       </c>
       <c r="K50">
-        <v>48.002000000000002</v>
+        <v>6860.48</v>
       </c>
       <c r="L50" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="N50" t="s">
         <v>443</v>
@@ -3656,10 +3606,10 @@
         <v>9000</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>16856.074000000001</v>
       </c>
       <c r="L51" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -3680,10 +3630,10 @@
         <v>4950</v>
       </c>
       <c r="K52">
-        <v>1269.6400000000001</v>
+        <v>20477.52</v>
       </c>
       <c r="L52" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -3703,10 +3653,10 @@
         <v>92174.342000000004</v>
       </c>
       <c r="K53">
-        <v>55305.932999999997</v>
+        <v>19053.771000000001</v>
       </c>
       <c r="L53" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3727,10 +3677,10 @@
         <v>195528.514</v>
       </c>
       <c r="K54">
-        <v>5002.58</v>
+        <v>108.54</v>
       </c>
       <c r="L54" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -3751,10 +3701,10 @@
         <v>6.45</v>
       </c>
       <c r="K55">
-        <v>50</v>
+        <v>163781.758</v>
       </c>
       <c r="L55" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -3775,10 +3725,10 @@
         <v>8</v>
       </c>
       <c r="K56">
-        <v>76678.94</v>
+        <v>15301</v>
       </c>
       <c r="L56" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -3799,10 +3749,10 @@
         <v>15.16</v>
       </c>
       <c r="K57">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -3823,10 +3773,10 @@
         <v>22.04</v>
       </c>
       <c r="K58">
-        <v>1.92</v>
+        <v>25.4</v>
       </c>
       <c r="L58" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -3847,10 +3797,10 @@
         <v>3480</v>
       </c>
       <c r="K59">
-        <v>6860.48</v>
+        <v>28.94</v>
       </c>
       <c r="L59" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -3871,10 +3821,10 @@
         <v>38.299999999999997</v>
       </c>
       <c r="K60">
-        <v>16856.074000000001</v>
+        <v>44826.35</v>
       </c>
       <c r="L60" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -3894,10 +3844,10 @@
         <v>2.5</v>
       </c>
       <c r="K61">
-        <v>20477.52</v>
+        <v>65433.95</v>
       </c>
       <c r="L61" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -3918,10 +3868,10 @@
         <v>25.87</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>10209.799999999999</v>
       </c>
       <c r="L62" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -3941,10 +3891,10 @@
         <v>5.16</v>
       </c>
       <c r="K63">
-        <v>19046.111000000001</v>
+        <v>97.11</v>
       </c>
       <c r="L63" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -3965,10 +3915,10 @@
         <v>58.645000000000003</v>
       </c>
       <c r="K64">
-        <v>2.58</v>
+        <v>4</v>
       </c>
       <c r="L64" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3989,10 +3939,10 @@
         <v>4541.6499999999996</v>
       </c>
       <c r="K65">
-        <v>108.54</v>
+        <v>39603.42</v>
       </c>
       <c r="L65" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4013,10 +3963,10 @@
         <v>4511.1000000000004</v>
       </c>
       <c r="K66">
-        <v>3.44</v>
+        <v>23200</v>
       </c>
       <c r="L66" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -4036,10 +3986,10 @@
         <v>5018.58</v>
       </c>
       <c r="K67">
-        <v>158781.758</v>
+        <v>93.903999999999996</v>
       </c>
       <c r="L67" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4063,10 +4013,10 @@
         <v>6.2119999999999997</v>
       </c>
       <c r="K68">
-        <v>15301</v>
+        <v>23206.238000000001</v>
       </c>
       <c r="L68" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -4087,10 +4037,10 @@
         <v>885.38</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>21.2</v>
       </c>
       <c r="L69" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -4111,10 +4061,10 @@
         <v>16.010000000000002</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>59508.6</v>
       </c>
       <c r="L70" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -4138,10 +4088,10 @@
         <v>1.506</v>
       </c>
       <c r="K71">
-        <v>25.4</v>
+        <v>29892.777999999998</v>
       </c>
       <c r="L71" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -4162,10 +4112,10 @@
         <v>17547.302</v>
       </c>
       <c r="K72">
-        <v>28.94</v>
+        <v>136437.492</v>
       </c>
       <c r="L72" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4186,10 +4136,10 @@
         <v>7.22</v>
       </c>
       <c r="K73">
-        <v>44826.35</v>
+        <v>5509.6580000000004</v>
       </c>
       <c r="L73" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4210,10 +4160,10 @@
         <v>15017.88</v>
       </c>
       <c r="K74">
-        <v>65430.95</v>
+        <v>3102.07</v>
       </c>
       <c r="L74" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4234,10 +4184,10 @@
         <v>19990</v>
       </c>
       <c r="K75">
-        <v>10205.4</v>
+        <v>6509.63</v>
       </c>
       <c r="L75" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4258,10 +4208,10 @@
         <v>5.6769999999999996</v>
       </c>
       <c r="K76">
-        <v>4.4000000000000004</v>
+        <v>21375.592000000001</v>
       </c>
       <c r="L76" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4281,10 +4231,10 @@
         <v>3.5</v>
       </c>
       <c r="K77">
-        <v>97.11</v>
+        <v>10029.879999999999</v>
       </c>
       <c r="L77" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4305,10 +4255,10 @@
         <v>16.396999999999998</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4332,10 +4282,10 @@
         <v>1.8149999999999999</v>
       </c>
       <c r="K79">
-        <v>39603.42</v>
+        <v>33299.56</v>
       </c>
       <c r="L79" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4356,10 +4306,10 @@
         <v>2.5</v>
       </c>
       <c r="K80">
-        <v>9600</v>
+        <v>142.26</v>
       </c>
       <c r="L80" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4380,10 +4330,10 @@
         <v>10</v>
       </c>
       <c r="K81">
-        <v>93.903999999999996</v>
+        <v>25274</v>
       </c>
       <c r="L81" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4404,10 +4354,10 @@
         <v>17.815000000000001</v>
       </c>
       <c r="K82">
-        <v>4.2</v>
+        <v>7060.1850000000004</v>
       </c>
       <c r="L82" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4428,10 +4378,10 @@
         <v>5003.8500000000004</v>
       </c>
       <c r="K83">
-        <v>15.52</v>
+        <v>21484.400000000001</v>
       </c>
       <c r="L83" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -4455,10 +4405,10 @@
         <v>25.2</v>
       </c>
       <c r="K84">
-        <v>18181.317999999999</v>
+        <v>5499</v>
       </c>
       <c r="L84" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -4478,10 +4428,10 @@
         <v>6798</v>
       </c>
       <c r="K85">
-        <v>21.2</v>
+        <v>35960</v>
       </c>
       <c r="L85" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -4502,10 +4452,10 @@
         <v>2000</v>
       </c>
       <c r="K86">
-        <v>59508.6</v>
+        <v>263434.58</v>
       </c>
       <c r="L86" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -4526,10 +4476,10 @@
         <v>1980</v>
       </c>
       <c r="K87">
-        <v>29892.777999999998</v>
+        <v>53809.218000000001</v>
       </c>
       <c r="L87" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -4550,10 +4500,10 @@
         <v>7009.28</v>
       </c>
       <c r="K88">
-        <v>131438.492</v>
+        <v>62598.648999999998</v>
       </c>
       <c r="L88" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -4574,10 +4524,10 @@
         <v>10687.8</v>
       </c>
       <c r="K89">
-        <v>5459.6580000000004</v>
+        <v>83855.104999999996</v>
       </c>
       <c r="L89" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -4597,10 +4547,10 @@
         <v>207610.984</v>
       </c>
       <c r="K90">
-        <v>102.07</v>
+        <v>83527</v>
       </c>
       <c r="L90" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -4621,10 +4571,10 @@
         <v>10.3</v>
       </c>
       <c r="K91">
-        <v>6509.63</v>
+        <v>64928.72</v>
       </c>
       <c r="L91" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4645,10 +4595,10 @@
         <v>3813.88</v>
       </c>
       <c r="K92">
-        <v>21191.572</v>
+        <v>239.74199999999999</v>
       </c>
       <c r="L92" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4669,10 +4619,10 @@
         <v>1004.93</v>
       </c>
       <c r="K93">
-        <v>10029.879999999999</v>
+        <v>14965.34</v>
       </c>
       <c r="L93" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4693,10 +4643,10 @@
         <v>4.6079999999999997</v>
       </c>
       <c r="K94">
-        <v>33299.56</v>
+        <v>4068.47</v>
       </c>
       <c r="L94" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4717,10 +4667,10 @@
         <v>15</v>
       </c>
       <c r="K95">
-        <v>142.26</v>
+        <v>58.09</v>
       </c>
       <c r="L95" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4741,10 +4691,10 @@
         <v>10.71</v>
       </c>
       <c r="K96">
-        <v>25274</v>
+        <v>14595.54</v>
       </c>
       <c r="L96" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4765,10 +4715,10 @@
         <v>13.49</v>
       </c>
       <c r="K97">
-        <v>7060.1850000000004</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="L97" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4789,10 +4739,10 @@
         <v>5010</v>
       </c>
       <c r="K98">
-        <v>21484.400000000001</v>
+        <v>133.18</v>
       </c>
       <c r="L98" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4813,10 +4763,10 @@
         <v>195.89</v>
       </c>
       <c r="K99">
-        <v>35960</v>
+        <v>34012.974999999999</v>
       </c>
       <c r="L99" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4840,10 +4790,10 @@
         <v>1.57</v>
       </c>
       <c r="K100">
-        <v>258394.58</v>
+        <v>105813.9</v>
       </c>
       <c r="L100" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4864,10 +4814,10 @@
         <v>0.86</v>
       </c>
       <c r="K101">
-        <v>53279.057999999997</v>
+        <v>57885.997000000003</v>
       </c>
       <c r="L101" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4888,10 +4838,10 @@
         <v>1.72</v>
       </c>
       <c r="K102">
-        <v>62594.249000000003</v>
+        <v>55607</v>
       </c>
       <c r="L102" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4915,10 +4865,10 @@
         <v>3.8610000000000002</v>
       </c>
       <c r="K103">
-        <v>83849.445000000007</v>
+        <v>139121.73000000001</v>
       </c>
       <c r="L103" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4939,10 +4889,10 @@
         <v>7.7</v>
       </c>
       <c r="K104">
-        <v>5.66</v>
+        <v>10150.475</v>
       </c>
       <c r="L104" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4963,10 +4913,10 @@
         <v>15.866</v>
       </c>
       <c r="K105">
-        <v>68929</v>
+        <v>5101</v>
       </c>
       <c r="L105" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4987,10 +4937,10 @@
         <v>81.98</v>
       </c>
       <c r="K106">
-        <v>64928.72</v>
+        <v>16174</v>
       </c>
       <c r="L106" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -5011,10 +4961,10 @@
         <v>4.25</v>
       </c>
       <c r="K107">
-        <v>4875</v>
+        <v>20283.71</v>
       </c>
       <c r="L107" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -5035,10 +4985,10 @@
         <v>5036.5200000000004</v>
       </c>
       <c r="K108">
-        <v>234.40199999999999</v>
+        <v>81.67</v>
       </c>
       <c r="L108" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -5058,12 +5008,6 @@
       <c r="F109">
         <v>33.880000000000003</v>
       </c>
-      <c r="K109">
-        <v>14965.34</v>
-      </c>
-      <c r="L109" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
@@ -5082,12 +5026,6 @@
       <c r="F110">
         <v>24697.4</v>
       </c>
-      <c r="K110">
-        <v>4068.47</v>
-      </c>
-      <c r="L110" t="s">
-        <v>554</v>
-      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -5105,12 +5043,6 @@
       <c r="F111">
         <v>5000</v>
       </c>
-      <c r="K111">
-        <v>5.59</v>
-      </c>
-      <c r="L111" t="s">
-        <v>555</v>
-      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
@@ -5129,12 +5061,6 @@
       <c r="F112">
         <v>9490.27</v>
       </c>
-      <c r="K112">
-        <v>14595.54</v>
-      </c>
-      <c r="L112" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
@@ -5153,12 +5079,6 @@
       <c r="F113">
         <v>2.63</v>
       </c>
-      <c r="K113">
-        <v>33.4</v>
-      </c>
-      <c r="L113" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
@@ -5177,12 +5097,7 @@
       <c r="F114">
         <v>4897</v>
       </c>
-      <c r="K114">
-        <v>2.58</v>
-      </c>
-      <c r="L114" t="s">
-        <v>558</v>
-      </c>
+      <c r="L114" s="6"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -5200,12 +5115,6 @@
       <c r="F115">
         <v>12420</v>
       </c>
-      <c r="K115">
-        <v>130.6</v>
-      </c>
-      <c r="L115" t="s">
-        <v>559</v>
-      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -5224,12 +5133,6 @@
       <c r="F116">
         <v>11537.67</v>
       </c>
-      <c r="K116">
-        <v>34012.974999999999</v>
-      </c>
-      <c r="L116" t="s">
-        <v>560</v>
-      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
@@ -5248,12 +5151,6 @@
       <c r="F117">
         <v>4507.6000000000004</v>
       </c>
-      <c r="K117">
-        <v>100815.9</v>
-      </c>
-      <c r="L117" t="s">
-        <v>561</v>
-      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
@@ -5272,12 +5169,6 @@
       <c r="F118">
         <v>5000</v>
       </c>
-      <c r="K118">
-        <v>57845.997000000003</v>
-      </c>
-      <c r="L118" t="s">
-        <v>562</v>
-      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
@@ -5296,12 +5187,6 @@
       <c r="F119">
         <v>5048.6000000000004</v>
       </c>
-      <c r="K119">
-        <v>46007</v>
-      </c>
-      <c r="L119" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
@@ -5320,12 +5205,6 @@
       <c r="F120">
         <v>17204.82</v>
       </c>
-      <c r="K120">
-        <v>129146.73</v>
-      </c>
-      <c r="L120" t="s">
-        <v>564</v>
-      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
@@ -5344,12 +5223,6 @@
       <c r="F121">
         <v>9578</v>
       </c>
-      <c r="K121">
-        <v>148.07499999999999</v>
-      </c>
-      <c r="L121" t="s">
-        <v>565</v>
-      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -5367,12 +5240,6 @@
       <c r="F122">
         <v>250</v>
       </c>
-      <c r="K122">
-        <v>5001</v>
-      </c>
-      <c r="L122" t="s">
-        <v>566</v>
-      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
@@ -5391,12 +5258,6 @@
       <c r="F123">
         <v>17990.240000000002</v>
       </c>
-      <c r="K123">
-        <v>16174</v>
-      </c>
-      <c r="L123" t="s">
-        <v>567</v>
-      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -5414,12 +5275,6 @@
       <c r="F124">
         <v>25009.1</v>
       </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" t="s">
-        <v>568</v>
-      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -5441,12 +5296,6 @@
       <c r="G125">
         <v>6.1</v>
       </c>
-      <c r="K125">
-        <v>20283.71</v>
-      </c>
-      <c r="L125" t="s">
-        <v>569</v>
-      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
@@ -5464,12 +5313,6 @@
       </c>
       <c r="F126">
         <v>5.52</v>
-      </c>
-      <c r="K126">
-        <v>81.67</v>
-      </c>
-      <c r="L126" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
